--- a/db_mappings/obstacles.xlsx
+++ b/db_mappings/obstacles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\PycharmProjects\Pokemon\db_mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E93098B-F694-426B-8698-286AD518FB8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6DCD50-CD49-4154-B2B2-D27950CAF3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="obstacles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>mom_lvl2</t>
+  </si>
+  <si>
+    <t>oaks_lab</t>
+  </si>
+  <si>
+    <t>prof.oak</t>
+  </si>
+  <si>
+    <t>9,10 is uiterxte cor</t>
+  </si>
+  <si>
+    <t>route1</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -549,10 +564,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,10 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,6 +2389,3624 @@
         <v>7</v>
       </c>
     </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2">
+        <v>7</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="2">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="2">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="2">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="2">
+        <v>6</v>
+      </c>
+      <c r="D110" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="2">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="2">
+        <v>6</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="2">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2">
+        <v>5</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="2">
+        <v>6</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="2">
+        <v>7</v>
+      </c>
+      <c r="D122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="2">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2">
+        <v>7</v>
+      </c>
+      <c r="D129" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="2">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="2">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="2">
+        <v>6</v>
+      </c>
+      <c r="D136" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="2">
+        <v>7</v>
+      </c>
+      <c r="D137" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="2">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="2">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="3">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="3">
+        <v>4</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="3">
+        <v>5</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="3">
+        <v>8</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="3">
+        <v>9</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="3">
+        <v>10</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="3">
+        <v>11</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="3">
+        <v>12</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="3">
+        <v>13</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="3">
+        <v>4</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="3">
+        <v>5</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="3">
+        <v>8</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="3">
+        <v>9</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="3">
+        <v>10</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="3">
+        <v>11</v>
+      </c>
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="3">
+        <v>12</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="3">
+        <v>13</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="3">
+        <v>4</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="3">
+        <v>5</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3">
+        <v>8</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="3">
+        <v>9</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="3">
+        <v>10</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="3">
+        <v>11</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="3">
+        <v>12</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="3">
+        <v>13</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2</v>
+      </c>
+      <c r="D178" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="3">
+        <v>3</v>
+      </c>
+      <c r="D179" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="3">
+        <v>4</v>
+      </c>
+      <c r="D180" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="3">
+        <v>5</v>
+      </c>
+      <c r="D181" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="3">
+        <v>8</v>
+      </c>
+      <c r="D182" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="3">
+        <v>9</v>
+      </c>
+      <c r="D183" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="3">
+        <v>10</v>
+      </c>
+      <c r="D184" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="3">
+        <v>11</v>
+      </c>
+      <c r="D185" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="3">
+        <v>12</v>
+      </c>
+      <c r="D186" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="3">
+        <v>13</v>
+      </c>
+      <c r="D187" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
+      <c r="D188" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="3">
+        <v>2</v>
+      </c>
+      <c r="D190" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="3">
+        <v>3</v>
+      </c>
+      <c r="D191" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="3">
+        <v>4</v>
+      </c>
+      <c r="D192" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="3">
+        <v>5</v>
+      </c>
+      <c r="D193" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="3">
+        <v>8</v>
+      </c>
+      <c r="D194" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="3">
+        <v>9</v>
+      </c>
+      <c r="D195" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="3">
+        <v>10</v>
+      </c>
+      <c r="D196" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="3">
+        <v>11</v>
+      </c>
+      <c r="D197" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="3">
+        <v>12</v>
+      </c>
+      <c r="D198" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="3">
+        <v>13</v>
+      </c>
+      <c r="D199" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="3">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="3">
+        <v>3</v>
+      </c>
+      <c r="D203" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="3">
+        <v>4</v>
+      </c>
+      <c r="D204" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="3">
+        <v>5</v>
+      </c>
+      <c r="D205" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="3">
+        <v>8</v>
+      </c>
+      <c r="D206" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="3">
+        <v>9</v>
+      </c>
+      <c r="D207" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="3">
+        <v>10</v>
+      </c>
+      <c r="D208" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="3">
+        <v>11</v>
+      </c>
+      <c r="D209" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="3">
+        <v>12</v>
+      </c>
+      <c r="D210" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="3">
+        <v>13</v>
+      </c>
+      <c r="D211" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="3">
+        <v>0</v>
+      </c>
+      <c r="D212" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1</v>
+      </c>
+      <c r="D213" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="3">
+        <v>2</v>
+      </c>
+      <c r="D214" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="3">
+        <v>3</v>
+      </c>
+      <c r="D215" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="3">
+        <v>4</v>
+      </c>
+      <c r="D216" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="3">
+        <v>5</v>
+      </c>
+      <c r="D217" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="3">
+        <v>8</v>
+      </c>
+      <c r="D218" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="3">
+        <v>9</v>
+      </c>
+      <c r="D219" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="3">
+        <v>10</v>
+      </c>
+      <c r="D220" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="3">
+        <v>11</v>
+      </c>
+      <c r="D221" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="3">
+        <v>12</v>
+      </c>
+      <c r="D222" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="3">
+        <v>13</v>
+      </c>
+      <c r="D223" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="3">
+        <v>5</v>
+      </c>
+      <c r="D224" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="3">
+        <v>0</v>
+      </c>
+      <c r="D225" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1</v>
+      </c>
+      <c r="D226" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="3">
+        <v>2</v>
+      </c>
+      <c r="D227" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="3">
+        <v>3</v>
+      </c>
+      <c r="D228" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="3">
+        <v>4</v>
+      </c>
+      <c r="D229" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="3">
+        <v>5</v>
+      </c>
+      <c r="D230" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="3">
+        <v>6</v>
+      </c>
+      <c r="D231" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="3">
+        <v>7</v>
+      </c>
+      <c r="D232" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="3">
+        <v>8</v>
+      </c>
+      <c r="D233" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="3">
+        <v>9</v>
+      </c>
+      <c r="D234" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="3">
+        <v>5</v>
+      </c>
+      <c r="D235" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="3">
+        <v>5</v>
+      </c>
+      <c r="D236" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="3">
+        <v>5</v>
+      </c>
+      <c r="D237" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="3">
+        <v>0</v>
+      </c>
+      <c r="D238" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1</v>
+      </c>
+      <c r="D239" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="3">
+        <v>2</v>
+      </c>
+      <c r="D240" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>5</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="3">
+        <v>3</v>
+      </c>
+      <c r="D241" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="3">
+        <v>4</v>
+      </c>
+      <c r="D242" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="3">
+        <v>5</v>
+      </c>
+      <c r="D243" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="3">
+        <v>0</v>
+      </c>
+      <c r="D244" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>5</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" s="3">
+        <v>1</v>
+      </c>
+      <c r="D245" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="3">
+        <v>2</v>
+      </c>
+      <c r="D246" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="3">
+        <v>3</v>
+      </c>
+      <c r="D247" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="3">
+        <v>4</v>
+      </c>
+      <c r="D248" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="3">
+        <v>5</v>
+      </c>
+      <c r="D249" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="3">
+        <v>6</v>
+      </c>
+      <c r="D250" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>5</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="3">
+        <v>7</v>
+      </c>
+      <c r="D251" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="3">
+        <v>8</v>
+      </c>
+      <c r="D252" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="3">
+        <v>9</v>
+      </c>
+      <c r="D253" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>5</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="3">
+        <v>0</v>
+      </c>
+      <c r="D254" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>5</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="3">
+        <v>2</v>
+      </c>
+      <c r="D255" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="3">
+        <v>3</v>
+      </c>
+      <c r="D256" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="3">
+        <v>4</v>
+      </c>
+      <c r="D257" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="3">
+        <v>6</v>
+      </c>
+      <c r="D258" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>5</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="3">
+        <v>7</v>
+      </c>
+      <c r="D259" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="3">
+        <v>8</v>
+      </c>
+      <c r="D260" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>5</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="3">
+        <v>9</v>
+      </c>
+      <c r="D261" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="3">
+        <v>10</v>
+      </c>
+      <c r="D262" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="3">
+        <v>11</v>
+      </c>
+      <c r="D263" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>5</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="3">
+        <v>12</v>
+      </c>
+      <c r="D264" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="3">
+        <v>13</v>
+      </c>
+      <c r="D265" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="3">
+        <v>0</v>
+      </c>
+      <c r="D266" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="3">
+        <v>1</v>
+      </c>
+      <c r="D267" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="3">
+        <v>2</v>
+      </c>
+      <c r="D268" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" s="3">
+        <v>3</v>
+      </c>
+      <c r="D269" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="3">
+        <v>4</v>
+      </c>
+      <c r="D270" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="3">
+        <v>5</v>
+      </c>
+      <c r="D271" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="3">
+        <v>6</v>
+      </c>
+      <c r="D272" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="3">
+        <v>7</v>
+      </c>
+      <c r="D273" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="3">
+        <v>12</v>
+      </c>
+      <c r="D274" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="3">
+        <v>13</v>
+      </c>
+      <c r="D275" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="3">
+        <v>0</v>
+      </c>
+      <c r="D276" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1</v>
+      </c>
+      <c r="D277" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="3">
+        <v>5</v>
+      </c>
+      <c r="D278" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="3">
+        <v>6</v>
+      </c>
+      <c r="D279" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="3">
+        <v>7</v>
+      </c>
+      <c r="D280" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>5</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="3">
+        <v>8</v>
+      </c>
+      <c r="D281" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="3">
+        <v>9</v>
+      </c>
+      <c r="D282" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" s="3">
+        <v>10</v>
+      </c>
+      <c r="D283" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" s="3">
+        <v>11</v>
+      </c>
+      <c r="D284" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="3">
+        <v>12</v>
+      </c>
+      <c r="D285" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>5</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" s="3">
+        <v>13</v>
+      </c>
+      <c r="D286" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" s="3">
+        <v>0</v>
+      </c>
+      <c r="D287" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="3">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" s="3">
+        <v>2</v>
+      </c>
+      <c r="D289" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="3">
+        <v>3</v>
+      </c>
+      <c r="D290" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>5</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="3">
+        <v>4</v>
+      </c>
+      <c r="D291" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="3">
+        <v>5</v>
+      </c>
+      <c r="D292" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>5</v>
+      </c>
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="3">
+        <v>8</v>
+      </c>
+      <c r="D293" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="3">
+        <v>9</v>
+      </c>
+      <c r="D294" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>5</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="3">
+        <v>10</v>
+      </c>
+      <c r="D295" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>5</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" s="3">
+        <v>11</v>
+      </c>
+      <c r="D296" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" s="3">
+        <v>12</v>
+      </c>
+      <c r="D297" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>5</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" s="3">
+        <v>13</v>
+      </c>
+      <c r="D298" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>5</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0</v>
+      </c>
+      <c r="D299" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="3">
+        <v>1</v>
+      </c>
+      <c r="D300" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="3">
+        <v>2</v>
+      </c>
+      <c r="D301" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" s="3">
+        <v>3</v>
+      </c>
+      <c r="D302" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>5</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="3">
+        <v>4</v>
+      </c>
+      <c r="D303" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="3">
+        <v>5</v>
+      </c>
+      <c r="D304" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>5</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" s="3">
+        <v>8</v>
+      </c>
+      <c r="D305" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>5</v>
+      </c>
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D306" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>5</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" s="3">
+        <v>10</v>
+      </c>
+      <c r="D307" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>5</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" s="3">
+        <v>11</v>
+      </c>
+      <c r="D308" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" s="3">
+        <v>12</v>
+      </c>
+      <c r="D309" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="3">
+        <v>13</v>
+      </c>
+      <c r="D310" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>5</v>
+      </c>
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="3">
+        <v>0</v>
+      </c>
+      <c r="D311" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="3">
+        <v>1</v>
+      </c>
+      <c r="D312" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>5</v>
+      </c>
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="3">
+        <v>2</v>
+      </c>
+      <c r="D313" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="3">
+        <v>3</v>
+      </c>
+      <c r="D314" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" s="3">
+        <v>4</v>
+      </c>
+      <c r="D315" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>5</v>
+      </c>
+      <c r="B316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" s="3">
+        <v>5</v>
+      </c>
+      <c r="D316" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" s="3">
+        <v>8</v>
+      </c>
+      <c r="D317" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>5</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" s="3">
+        <v>9</v>
+      </c>
+      <c r="D318" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>5</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" s="3">
+        <v>10</v>
+      </c>
+      <c r="D319" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>5</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="3">
+        <v>11</v>
+      </c>
+      <c r="D320" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>5</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" s="3">
+        <v>12</v>
+      </c>
+      <c r="D321" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>5</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" s="3">
+        <v>13</v>
+      </c>
+      <c r="D322" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>5</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="3">
+        <v>0</v>
+      </c>
+      <c r="D323" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>5</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="3">
+        <v>1</v>
+      </c>
+      <c r="D324" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>5</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="3">
+        <v>2</v>
+      </c>
+      <c r="D325" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>5</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" s="3">
+        <v>3</v>
+      </c>
+      <c r="D326" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>5</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="3">
+        <v>4</v>
+      </c>
+      <c r="D327" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="3">
+        <v>5</v>
+      </c>
+      <c r="D328" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>5</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" s="3">
+        <v>8</v>
+      </c>
+      <c r="D329" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" s="3">
+        <v>9</v>
+      </c>
+      <c r="D330" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" s="3">
+        <v>10</v>
+      </c>
+      <c r="D331" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>5</v>
+      </c>
+      <c r="B332" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" s="3">
+        <v>11</v>
+      </c>
+      <c r="D332" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>5</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" s="3">
+        <v>12</v>
+      </c>
+      <c r="D333" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>5</v>
+      </c>
+      <c r="B334" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" s="3">
+        <v>13</v>
+      </c>
+      <c r="D334" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>5</v>
+      </c>
+      <c r="B335" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="3">
+        <v>0</v>
+      </c>
+      <c r="D335" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>5</v>
+      </c>
+      <c r="B336" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="3">
+        <v>1</v>
+      </c>
+      <c r="D336" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>5</v>
+      </c>
+      <c r="B337" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="3">
+        <v>2</v>
+      </c>
+      <c r="D337" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>5</v>
+      </c>
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="3">
+        <v>3</v>
+      </c>
+      <c r="D338" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>5</v>
+      </c>
+      <c r="B339" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" s="3">
+        <v>4</v>
+      </c>
+      <c r="D339" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>5</v>
+      </c>
+      <c r="B340" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340" s="3">
+        <v>5</v>
+      </c>
+      <c r="D340" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>5</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" s="3">
+        <v>8</v>
+      </c>
+      <c r="D341" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>5</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" s="3">
+        <v>9</v>
+      </c>
+      <c r="D342" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>5</v>
+      </c>
+      <c r="B343" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" s="3">
+        <v>10</v>
+      </c>
+      <c r="D343" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>5</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="3">
+        <v>11</v>
+      </c>
+      <c r="D344" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>5</v>
+      </c>
+      <c r="B345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="3">
+        <v>12</v>
+      </c>
+      <c r="D345" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" s="3">
+        <v>13</v>
+      </c>
+      <c r="D346" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>5</v>
+      </c>
+      <c r="B347" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" s="3">
+        <v>0</v>
+      </c>
+      <c r="D347" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>5</v>
+      </c>
+      <c r="B348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="3">
+        <v>1</v>
+      </c>
+      <c r="D348" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>5</v>
+      </c>
+      <c r="B349" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="3">
+        <v>2</v>
+      </c>
+      <c r="D349" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>5</v>
+      </c>
+      <c r="B350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350" s="3">
+        <v>3</v>
+      </c>
+      <c r="D350" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>5</v>
+      </c>
+      <c r="B351" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="3">
+        <v>4</v>
+      </c>
+      <c r="D351" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>5</v>
+      </c>
+      <c r="B352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="3">
+        <v>5</v>
+      </c>
+      <c r="D352" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>5</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="3">
+        <v>8</v>
+      </c>
+      <c r="D353" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>5</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="3">
+        <v>9</v>
+      </c>
+      <c r="D354" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>5</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="3">
+        <v>10</v>
+      </c>
+      <c r="D355" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>5</v>
+      </c>
+      <c r="B356" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356" s="3">
+        <v>11</v>
+      </c>
+      <c r="D356" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>5</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="3">
+        <v>12</v>
+      </c>
+      <c r="D357" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>12</v>
+      </c>
+      <c r="C358" s="3">
+        <v>13</v>
+      </c>
+      <c r="D358" s="3">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E100" xr:uid="{44DEFA72-B260-4F1D-9AF3-9A973D2C5115}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E100">

--- a/db_mappings/obstacles.xlsx
+++ b/db_mappings/obstacles.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\PycharmProjects\Pokemon\db_mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D9AAD-C4A1-4659-885F-95B1ECB868C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B71A1-12F7-4488-9E37-31E68B7EC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18885" yWindow="2385" windowWidth="18465" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19230" yWindow="2730" windowWidth="18465" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="obstacles" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">obstacles!$A$1:$E$1777</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">obstacles!$A$1:$E$1819</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -949,8 +949,8 @@
   <dimension ref="A1:E1819"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1781" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1802" sqref="B1802"/>
+      <pane ySplit="1" topLeftCell="A1742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1769" sqref="C1769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>12</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>12</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>12</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>12</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>12</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>12</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>12</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>12</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>12</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>12</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>12</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>12</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>12</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>12</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>12</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>12</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>12</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>12</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>12</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>12</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>12</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>12</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>12</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>12</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>12</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>12</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>12</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>12</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>12</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>12</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>12</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>12</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>12</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>12</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>12</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>12</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>12</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>12</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>12</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>12</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>12</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>12</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>12</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>12</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>12</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>12</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>12</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>12</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>12</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>12</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>12</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>12</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>12</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>12</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>12</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>12</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>12</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>12</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>12</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>12</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>12</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>12</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>12</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>12</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>12</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>12</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>12</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>12</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
         <v>12</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
         <v>12</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>12</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>12</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
         <v>12</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>12</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>12</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
         <v>12</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
         <v>12</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
         <v>12</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
         <v>12</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
         <v>12</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
         <v>12</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
         <v>12</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1">
         <v>12</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>12</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
         <v>12</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
         <v>12</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1">
         <v>12</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
         <v>12</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
         <v>12</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>12</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
         <v>12</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
         <v>12</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
         <v>12</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
         <v>12</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>12</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
         <v>12</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>12</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
         <v>12</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
         <v>12</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
         <v>12</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1">
         <v>12</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1">
         <v>12</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1">
         <v>12</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
         <v>12</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1">
         <v>12</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1">
         <v>12</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1">
         <v>12</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1">
         <v>12</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1">
         <v>12</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1">
         <v>12</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1">
         <v>12</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1">
         <v>12</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="1">
         <v>12</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1">
         <v>12</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="1">
         <v>12</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="1">
         <v>12</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="1">
         <v>12</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1">
         <v>12</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1">
         <v>12</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1">
         <v>12</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
         <v>12</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1">
         <v>12</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1">
         <v>12</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1">
         <v>12</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1">
         <v>12</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1">
         <v>12</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1">
         <v>12</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
         <v>12</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
         <v>12</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
         <v>12</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
         <v>12</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
         <v>12</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
         <v>12</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
         <v>12</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
         <v>12</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
         <v>12</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
         <v>12</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
         <v>12</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
         <v>12</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
         <v>12</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
         <v>12</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1">
         <v>12</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
         <v>12</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="1">
         <v>12</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
         <v>12</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1">
         <v>12</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="1">
         <v>12</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="1">
         <v>12</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="1">
         <v>12</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
         <v>12</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1076" s="1">
         <v>12</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="1">
         <v>12</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="1">
         <v>12</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1">
         <v>12</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1">
         <v>12</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
         <v>12</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="1">
         <v>12</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="1">
         <v>12</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1">
         <v>12</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1">
         <v>12</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="1">
         <v>12</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1">
         <v>12</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1">
         <v>12</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="1">
         <v>12</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1090" s="1">
         <v>12</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="1">
         <v>12</v>
       </c>
@@ -16291,7 +16291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="1">
         <v>12</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1093" s="1">
         <v>12</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1094" s="1">
         <v>12</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="1">
         <v>12</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="1">
         <v>12</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="1">
         <v>12</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="1">
         <v>12</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="1">
         <v>12</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1100" s="1">
         <v>12</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1101" s="1">
         <v>12</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="1">
         <v>12</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1103" s="1">
         <v>12</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
         <v>12</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="1">
         <v>12</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1106" s="1">
         <v>12</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1107" s="1">
         <v>12</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="1">
         <v>12</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1109" s="1">
         <v>12</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1110" s="1">
         <v>12</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1111" s="1">
         <v>12</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="1">
         <v>12</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1113" s="1">
         <v>12</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1114" s="1">
         <v>12</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1115" s="1">
         <v>12</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1116" s="1">
         <v>12</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1117" s="1">
         <v>12</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1118" s="1">
         <v>12</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1119" s="1">
         <v>12</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="1">
         <v>12</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1121" s="1">
         <v>12</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1122" s="1">
         <v>12</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1123" s="1">
         <v>12</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1124" s="1">
         <v>12</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1125" s="1">
         <v>12</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1126" s="1">
         <v>12</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="1">
         <v>12</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
         <v>12</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1129" s="1">
         <v>12</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1130" s="1">
         <v>12</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1131" s="1">
         <v>12</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1132" s="1">
         <v>12</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="1">
         <v>12</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="1">
         <v>12</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
         <v>12</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1136" s="1">
         <v>12</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1137" s="1">
         <v>12</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1138" s="1">
         <v>12</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1139" s="1">
         <v>12</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1140" s="1">
         <v>12</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1141" s="1">
         <v>12</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1142" s="1">
         <v>12</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
         <v>12</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1144" s="1">
         <v>12</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1145" s="1">
         <v>12</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1146" s="1">
         <v>12</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1147" s="1">
         <v>12</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
         <v>12</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1149" s="1">
         <v>12</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1150" s="1">
         <v>12</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1151" s="1">
         <v>12</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1152" s="1">
         <v>12</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1153" s="1">
         <v>12</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
         <v>12</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
         <v>12</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
         <v>12</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
         <v>12</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1158" s="1">
         <v>12</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1159" s="1">
         <v>12</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1160" s="1">
         <v>12</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
         <v>12</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1162" s="1">
         <v>12</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1163" s="1">
         <v>12</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1164" s="1">
         <v>12</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
         <v>12</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
         <v>12</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
         <v>12</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
         <v>12</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
         <v>12</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
         <v>12</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
         <v>12</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
         <v>12</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1173" s="1">
         <v>12</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1174" s="1">
         <v>12</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1175" s="1">
         <v>12</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1176" s="1">
         <v>12</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1177" s="1">
         <v>12</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1178" s="1">
         <v>12</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
         <v>12</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
         <v>12</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1181" s="1">
         <v>12</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1182" s="1">
         <v>12</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1183" s="1">
         <v>12</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1184" s="1">
         <v>12</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
         <v>12</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1186" s="1">
         <v>12</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1187" s="1">
         <v>12</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1188" s="1">
         <v>12</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1189" s="1">
         <v>12</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1190" s="1">
         <v>12</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1191" s="1">
         <v>12</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1192" s="1">
         <v>12</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1193" s="1">
         <v>12</v>
       </c>
@@ -17719,7 +17719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1194" s="1">
         <v>12</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1195" s="1">
         <v>12</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1196" s="1">
         <v>12</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1197" s="1">
         <v>12</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1198" s="1">
         <v>12</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1199" s="1">
         <v>12</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1200" s="1">
         <v>12</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1201" s="1">
         <v>12</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1202" s="1">
         <v>12</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
         <v>12</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
         <v>12</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1205" s="1">
         <v>12</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
         <v>12</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
         <v>12</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1208" s="1">
         <v>12</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
         <v>12</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
         <v>12</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1211" s="1">
         <v>12</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1212" s="1">
         <v>12</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1213" s="1">
         <v>12</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1214" s="1">
         <v>12</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1215" s="1">
         <v>12</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1216" s="1">
         <v>12</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1217" s="1">
         <v>12</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1218" s="1">
         <v>12</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1219" s="1">
         <v>12</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
         <v>12</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
         <v>12</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1222" s="1">
         <v>12</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1223" s="1">
         <v>12</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1224" s="1">
         <v>12</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1225" s="1">
         <v>12</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1226" s="1">
         <v>12</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1227" s="1">
         <v>12</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1228" s="1">
         <v>12</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1229" s="1">
         <v>12</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1230" s="1">
         <v>12</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1231" s="1">
         <v>12</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1232" s="1">
         <v>12</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1233" s="1">
         <v>12</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1234" s="1">
         <v>12</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1235" s="1">
         <v>12</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1236" s="1">
         <v>12</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1237" s="1">
         <v>12</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1238" s="1">
         <v>12</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1239" s="1">
         <v>12</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1240" s="1">
         <v>12</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1241" s="1">
         <v>12</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1242" s="1">
         <v>12</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1243" s="1">
         <v>12</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1252" s="1">
         <v>12</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1253" s="1">
         <v>12</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1254" s="1">
         <v>12</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1255" s="1">
         <v>12</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1256" s="1">
         <v>12</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1257" s="1">
         <v>12</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1258" s="1">
         <v>12</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1259" s="1">
         <v>12</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1260" s="1">
         <v>12</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1261" s="1">
         <v>12</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1262" s="1">
         <v>12</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1263" s="1">
         <v>12</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1264" s="1">
         <v>12</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1265" s="1">
         <v>12</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
         <v>12</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
         <v>12</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1268" s="1">
         <v>12</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1269" s="1">
         <v>12</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1270" s="1">
         <v>12</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1271" s="1">
         <v>12</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1272" s="1">
         <v>12</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1273" s="1">
         <v>12</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1274" s="1">
         <v>12</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1275" s="1">
         <v>12</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1276" s="1">
         <v>12</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1277" s="1">
         <v>12</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1278" s="1">
         <v>12</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1279" s="1">
         <v>12</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1280" s="1">
         <v>12</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1281" s="1">
         <v>12</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1282" s="1">
         <v>12</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1283" s="1">
         <v>12</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1284" s="1">
         <v>12</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1285" s="1">
         <v>12</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1286" s="1">
         <v>12</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1287" s="1">
         <v>12</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1288" s="1">
         <v>12</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1289" s="1">
         <v>12</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1290" s="1">
         <v>12</v>
       </c>
@@ -19077,7 +19077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1291" s="1">
         <v>12</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1292" s="1">
         <v>12</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1293" s="1">
         <v>12</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1294" s="1">
         <v>12</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1295" s="1">
         <v>12</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1296" s="1">
         <v>12</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1297" s="1">
         <v>12</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1298" s="1">
         <v>12</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1299" s="1">
         <v>12</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1300" s="1">
         <v>12</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1301" s="1">
         <v>12</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1">
         <v>12</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1303" s="1">
         <v>12</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1304" s="1">
         <v>12</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1305" s="1">
         <v>12</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
         <v>12</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
         <v>12</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1308" s="1">
         <v>12</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1309" s="1">
         <v>12</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1310" s="1">
         <v>12</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1311" s="1">
         <v>12</v>
       </c>
@@ -19371,7 +19371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1312" s="1">
         <v>12</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1313" s="1">
         <v>12</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1314" s="1">
         <v>12</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1315" s="1">
         <v>12</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1316" s="1">
         <v>12</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1317" s="1">
         <v>12</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1318" s="1">
         <v>12</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1319" s="1">
         <v>12</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1320" s="1">
         <v>12</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1321" s="1">
         <v>12</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1322" s="1">
         <v>12</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1323" s="1">
         <v>12</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1324" s="1">
         <v>12</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1325" s="1">
         <v>12</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1326" s="1">
         <v>12</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1327" s="1">
         <v>12</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1328" s="1">
         <v>12</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1329" s="1">
         <v>12</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1330" s="1">
         <v>12</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1331" s="1">
         <v>12</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1332" s="1">
         <v>12</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1333" s="1">
         <v>12</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1334" s="1">
         <v>12</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1335" s="1">
         <v>12</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1336" s="1">
         <v>12</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1337" s="1">
         <v>12</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1338" s="1">
         <v>12</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1339" s="1">
         <v>12</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1340" s="1">
         <v>12</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1341" s="1">
         <v>12</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1342" s="1">
         <v>12</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1343" s="1">
         <v>12</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1344" s="1">
         <v>12</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1345" s="1">
         <v>12</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1346" s="1">
         <v>12</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1347" s="1">
         <v>12</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1348" s="1">
         <v>12</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1357" s="1">
         <v>12</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1358" s="1">
         <v>12</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1359" s="1">
         <v>12</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1360" s="1">
         <v>12</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1361" s="1">
         <v>12</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1362" s="1">
         <v>12</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1363" s="1">
         <v>12</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1364" s="1">
         <v>12</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1365" s="1">
         <v>12</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1366" s="1">
         <v>12</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1367" s="1">
         <v>12</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1368" s="1">
         <v>12</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1369" s="1">
         <v>12</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1370" s="1">
         <v>12</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1371" s="1">
         <v>12</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1372" s="1">
         <v>12</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1373" s="1">
         <v>12</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1374" s="1">
         <v>12</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1375" s="1">
         <v>12</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1376" s="1">
         <v>12</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1377" s="1">
         <v>12</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1378" s="1">
         <v>12</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1379" s="1">
         <v>12</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1380" s="1">
         <v>12</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1381" s="1">
         <v>12</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1382" s="1">
         <v>12</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1383" s="1">
         <v>12</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1384" s="1">
         <v>12</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1385" s="1">
         <v>12</v>
       </c>
@@ -20407,7 +20407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1386" s="1">
         <v>12</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1387" s="1">
         <v>12</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1388" s="1">
         <v>12</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1389" s="1">
         <v>12</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1390" s="1">
         <v>12</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1391" s="1">
         <v>12</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1392" s="1">
         <v>12</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1393" s="1">
         <v>12</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1394" s="1">
         <v>12</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1395" s="1">
         <v>12</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1396" s="1">
         <v>12</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1397" s="1">
         <v>12</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1398" s="1">
         <v>12</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1399" s="1">
         <v>12</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1400" s="1">
         <v>12</v>
       </c>
@@ -20617,7 +20617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1401" s="1">
         <v>12</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1402" s="1">
         <v>12</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1403" s="1">
         <v>12</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1404" s="1">
         <v>12</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1405" s="1">
         <v>12</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1406" s="1">
         <v>12</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1407" s="1">
         <v>12</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1408" s="1">
         <v>12</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1409" s="1">
         <v>12</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1410" s="1">
         <v>12</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1411" s="1">
         <v>12</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1412" s="1">
         <v>12</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1413" s="1">
         <v>12</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1414" s="1">
         <v>12</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1415" s="1">
         <v>12</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1416" s="1">
         <v>12</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1417" s="1">
         <v>12</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1418" s="1">
         <v>12</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1419" s="1">
         <v>12</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1420" s="1">
         <v>12</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1421" s="1">
         <v>12</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1422" s="1">
         <v>12</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1423" s="1">
         <v>12</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1424" s="1">
         <v>12</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1425" s="1">
         <v>12</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1426" s="1">
         <v>12</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1427" s="1">
         <v>12</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1428" s="1">
         <v>12</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1429" s="1">
         <v>12</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1430" s="1">
         <v>12</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1431" s="1">
         <v>12</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1432" s="1">
         <v>12</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1433" s="1">
         <v>12</v>
       </c>
@@ -21079,7 +21079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1434" s="1">
         <v>12</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1435" s="1">
         <v>12</v>
       </c>
@@ -21107,7 +21107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1436" s="1">
         <v>12</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1437" s="1">
         <v>12</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1438" s="1">
         <v>12</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1439" s="1">
         <v>12</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1440" s="1">
         <v>12</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1441" s="1">
         <v>12</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1442" s="1">
         <v>12</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1443" s="1">
         <v>12</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
         <v>12</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1445" s="1">
         <v>12</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1446" s="1">
         <v>12</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1447" s="1">
         <v>12</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1448" s="1">
         <v>12</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1449" s="1">
         <v>12</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1450" s="1">
         <v>12</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1451" s="1">
         <v>12</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1452" s="1">
         <v>12</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1453" s="1">
         <v>12</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1454" s="1">
         <v>12</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1455" s="1">
         <v>12</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1456" s="1">
         <v>12</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1457" s="1">
         <v>12</v>
       </c>
@@ -21415,7 +21415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1458" s="1">
         <v>12</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1459" s="1">
         <v>12</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1460" s="1">
         <v>12</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1461" s="1">
         <v>12</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1462" s="1">
         <v>12</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1463" s="1">
         <v>12</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1464" s="1">
         <v>12</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1465" s="1">
         <v>12</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1466" s="1">
         <v>12</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1467" s="1">
         <v>12</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1468" s="1">
         <v>12</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1469" s="1">
         <v>12</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1470" s="1">
         <v>12</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1471" s="1">
         <v>12</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1472" s="1">
         <v>12</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1473" s="1">
         <v>12</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1474" s="1">
         <v>12</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1475" s="1">
         <v>12</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1476" s="1">
         <v>12</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1477" s="1">
         <v>12</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1478" s="1">
         <v>12</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1479" s="1">
         <v>12</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1480" s="1">
         <v>12</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1481" s="1">
         <v>12</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1482" s="1">
         <v>12</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1483" s="1">
         <v>12</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
         <v>12</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
         <v>12</v>
       </c>
@@ -21807,7 +21807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
         <v>12</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
         <v>12</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
         <v>12</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1489" s="1">
         <v>12</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1490" s="1">
         <v>12</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1491" s="1">
         <v>12</v>
       </c>
@@ -21891,7 +21891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
         <v>12</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
         <v>12</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
         <v>12</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1495" s="1">
         <v>12</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1496" s="1">
         <v>12</v>
       </c>
@@ -21961,7 +21961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1497" s="1">
         <v>12</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1498" s="1">
         <v>12</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1499" s="1">
         <v>12</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1500" s="1">
         <v>12</v>
       </c>
@@ -22017,7 +22017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1501" s="1">
         <v>12</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1502" s="1">
         <v>12</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1503" s="1">
         <v>12</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1504" s="1">
         <v>12</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1505" s="1">
         <v>12</v>
       </c>
@@ -22087,7 +22087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1506" s="1">
         <v>12</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1507" s="1">
         <v>12</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
         <v>12</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
         <v>12</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
         <v>12</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1511" s="1">
         <v>12</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1512" s="1">
         <v>12</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1513" s="1">
         <v>12</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1514" s="1">
         <v>12</v>
       </c>
@@ -22213,7 +22213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1515" s="1">
         <v>12</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1516" s="1">
         <v>12</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1517" s="1">
         <v>12</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1518" s="1">
         <v>12</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1519" s="1">
         <v>12</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1520" s="1">
         <v>12</v>
       </c>
@@ -22297,7 +22297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1521" s="1">
         <v>12</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1522" s="1">
         <v>12</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1523" s="1">
         <v>12</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1524" s="1">
         <v>12</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1525" s="1">
         <v>12</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1526" s="1">
         <v>12</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1527" s="1">
         <v>12</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1528" s="1">
         <v>12</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1529" s="1">
         <v>12</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1530" s="1">
         <v>12</v>
       </c>
@@ -22437,7 +22437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1531" s="1">
         <v>12</v>
       </c>
@@ -22451,7 +22451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1532" s="1">
         <v>12</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1533" s="1">
         <v>12</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1534" s="1">
         <v>12</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1535" s="1">
         <v>12</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1536" s="1">
         <v>12</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1537" s="1">
         <v>12</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1538" s="1">
         <v>12</v>
       </c>
@@ -22549,7 +22549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1539" s="1">
         <v>12</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1540" s="1">
         <v>12</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1541" s="1">
         <v>12</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1542" s="1">
         <v>12</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1543" s="1">
         <v>12</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1544" s="1">
         <v>12</v>
       </c>
@@ -22633,7 +22633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
         <v>12</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1546" s="1">
         <v>12</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1547" s="1">
         <v>12</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1548" s="1">
         <v>12</v>
       </c>
@@ -22689,7 +22689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1549" s="1">
         <v>12</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1550" s="1">
         <v>12</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1551" s="1">
         <v>12</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1552" s="1">
         <v>12</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
         <v>12</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1554" s="1">
         <v>12</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1555" s="1">
         <v>12</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1556" s="1">
         <v>12</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1557" s="1">
         <v>12</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1558" s="1">
         <v>12</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1559" s="1">
         <v>12</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1560" s="1">
         <v>12</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1561" s="1">
         <v>12</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1562" s="1">
         <v>12</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1563" s="1">
         <v>12</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1564" s="1">
         <v>12</v>
       </c>
@@ -22913,7 +22913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1565" s="1">
         <v>12</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1566" s="1">
         <v>12</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1567" s="1">
         <v>12</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1568" s="1">
         <v>12</v>
       </c>
@@ -22983,7 +22983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1570" s="1">
         <v>12</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1571" s="1">
         <v>12</v>
       </c>
@@ -23011,7 +23011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1572" s="1">
         <v>12</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1573" s="1">
         <v>12</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1574" s="1">
         <v>12</v>
       </c>
@@ -23053,7 +23053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1575" s="1">
         <v>12</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1576" s="1">
         <v>12</v>
       </c>
@@ -23081,7 +23081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
         <v>12</v>
       </c>
@@ -23095,7 +23095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1578" s="1">
         <v>12</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
         <v>12</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1580" s="1">
         <v>12</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1581" s="1">
         <v>12</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1582" s="1">
         <v>12</v>
       </c>
@@ -23165,7 +23165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1583" s="1">
         <v>12</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1584" s="1">
         <v>12</v>
       </c>
@@ -23193,7 +23193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1585" s="1">
         <v>12</v>
       </c>
@@ -23207,7 +23207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1586" s="1">
         <v>12</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1587" s="1">
         <v>12</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
         <v>12</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1589" s="1">
         <v>12</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1590" s="1">
         <v>12</v>
       </c>
@@ -23277,7 +23277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1591" s="1">
         <v>12</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1592" s="1">
         <v>12</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1">
         <v>12</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1594" s="1">
         <v>12</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1595" s="1">
         <v>12</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1596" s="1">
         <v>12</v>
       </c>
@@ -23361,7 +23361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1597" s="1">
         <v>12</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1598" s="1">
         <v>12</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1600" s="1">
         <v>12</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1601" s="1">
         <v>12</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1602" s="1">
         <v>12</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1603" s="1">
         <v>12</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1604" s="1">
         <v>12</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1605" s="1">
         <v>12</v>
       </c>
@@ -23487,7 +23487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1606" s="1">
         <v>12</v>
       </c>
@@ -23501,7 +23501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1607" s="1">
         <v>12</v>
       </c>
@@ -23515,7 +23515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1608" s="1">
         <v>12</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1609" s="1">
         <v>12</v>
       </c>
@@ -23543,7 +23543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1610" s="1">
         <v>12</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1611" s="1">
         <v>12</v>
       </c>
@@ -23571,7 +23571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1612" s="1">
         <v>12</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1613" s="1">
         <v>12</v>
       </c>
@@ -23599,7 +23599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1614" s="1">
         <v>12</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1615" s="1">
         <v>12</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1616" s="1">
         <v>12</v>
       </c>
@@ -23641,7 +23641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1617" s="1">
         <v>12</v>
       </c>
@@ -23655,7 +23655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1618" s="1">
         <v>12</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1619" s="1">
         <v>12</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1620" s="1">
         <v>12</v>
       </c>
@@ -23697,7 +23697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1621" s="1">
         <v>12</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
         <v>12</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
         <v>12</v>
       </c>
@@ -23739,7 +23739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
         <v>12</v>
       </c>
@@ -23753,7 +23753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
         <v>12</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
         <v>12</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1627" s="1">
         <v>12</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1629" s="1">
         <v>12</v>
       </c>
@@ -23823,7 +23823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1630" s="1">
         <v>12</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
         <v>12</v>
       </c>
@@ -23851,7 +23851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
         <v>12</v>
       </c>
@@ -23865,7 +23865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1633" s="1">
         <v>12</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1634" s="1">
         <v>12</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1635" s="1">
         <v>12</v>
       </c>
@@ -23907,7 +23907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1636" s="1">
         <v>12</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1637" s="1">
         <v>12</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1638" s="1">
         <v>12</v>
       </c>
@@ -23949,7 +23949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1639" s="1">
         <v>12</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1640" s="1">
         <v>12</v>
       </c>
@@ -23977,7 +23977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1641" s="1">
         <v>12</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1642" s="1">
         <v>12</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1643" s="1">
         <v>12</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1644" s="1">
         <v>12</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1645" s="1">
         <v>12</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1646" s="1">
         <v>12</v>
       </c>
@@ -24061,7 +24061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1647" s="1">
         <v>12</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1648" s="1">
         <v>12</v>
       </c>
@@ -24089,7 +24089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1649" s="1">
         <v>12</v>
       </c>
@@ -24103,7 +24103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1650" s="1">
         <v>12</v>
       </c>
@@ -24117,7 +24117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1651" s="1">
         <v>12</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1652" s="1">
         <v>12</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1653" s="1">
         <v>12</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1654" s="1">
         <v>12</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1655" s="1">
         <v>12</v>
       </c>
@@ -24187,7 +24187,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1656" s="1">
         <v>12</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1658" s="1">
         <v>12</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1659" s="1">
         <v>12</v>
       </c>
@@ -24243,7 +24243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1660" s="1">
         <v>12</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1661" s="1">
         <v>12</v>
       </c>
@@ -24271,7 +24271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1662" s="1">
         <v>12</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1663" s="1">
         <v>12</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1664" s="1">
         <v>12</v>
       </c>
@@ -24313,7 +24313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1665" s="1">
         <v>12</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1666" s="1">
         <v>12</v>
       </c>
@@ -24341,7 +24341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1667" s="1">
         <v>12</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1668" s="1">
         <v>12</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1669" s="1">
         <v>12</v>
       </c>
@@ -24383,7 +24383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1670" s="1">
         <v>12</v>
       </c>
@@ -24397,7 +24397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1671" s="1">
         <v>12</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1672" s="1">
         <v>12</v>
       </c>
@@ -24425,7 +24425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1673" s="1">
         <v>12</v>
       </c>
@@ -24439,7 +24439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1674" s="1">
         <v>12</v>
       </c>
@@ -24453,7 +24453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1675" s="1">
         <v>12</v>
       </c>
@@ -24467,7 +24467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1676" s="1">
         <v>12</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1677" s="1">
         <v>12</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1678" s="1">
         <v>12</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1679" s="1">
         <v>12</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1680" s="1">
         <v>12</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1681" s="1">
         <v>12</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1682" s="1">
         <v>12</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1683" s="1">
         <v>12</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1684" s="1">
         <v>12</v>
       </c>
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1685" s="1">
         <v>12</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1686" s="1">
         <v>12</v>
       </c>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1687" s="1">
         <v>12</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1688" s="1">
         <v>12</v>
       </c>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1689" s="1">
         <v>12</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1690" s="1">
         <v>12</v>
       </c>
@@ -24677,7 +24677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1691" s="1">
         <v>12</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1692" s="1">
         <v>12</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1693" s="1">
         <v>12</v>
       </c>
@@ -24719,7 +24719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1694" s="1">
         <v>12</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1696" s="1">
         <v>12</v>
       </c>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1697" s="1">
         <v>12</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1698" s="1">
         <v>12</v>
       </c>
@@ -24789,7 +24789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1699" s="1">
         <v>12</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1700" s="1">
         <v>12</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1701" s="1">
         <v>12</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1702" s="1">
         <v>12</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1703" s="1">
         <v>12</v>
       </c>
@@ -24873,7 +24873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1705" s="1">
         <v>12</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1706" s="1">
         <v>12</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1707" s="1">
         <v>12</v>
       </c>
@@ -24915,7 +24915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1708" s="1">
         <v>12</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1709" s="1">
         <v>12</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1710" s="1">
         <v>12</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1711" s="1">
         <v>12</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1713" s="1">
         <v>12</v>
       </c>
@@ -24999,7 +24999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1714" s="1">
         <v>12</v>
       </c>
@@ -25013,7 +25013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1715" s="1">
         <v>12</v>
       </c>
@@ -25027,7 +25027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1716" s="1">
         <v>12</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1717" s="1">
         <v>12</v>
       </c>
@@ -25055,7 +25055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1718" s="1">
         <v>12</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1719" s="1">
         <v>12</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1720" s="1">
         <v>12</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1721" s="1">
         <v>12</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1722" s="1">
         <v>12</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1723" s="1">
         <v>12</v>
       </c>
@@ -25153,7 +25153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
         <v>12</v>
       </c>
@@ -25167,7 +25167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
         <v>12</v>
       </c>
@@ -25181,7 +25181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
         <v>12</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
         <v>12</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
         <v>12</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
         <v>12</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
         <v>12</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
         <v>12</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
         <v>12</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1734" s="1">
         <v>12</v>
       </c>
@@ -25293,7 +25293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1735" s="1">
         <v>12</v>
       </c>
@@ -25307,7 +25307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1736" s="1">
         <v>12</v>
       </c>
@@ -25335,7 +25335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1738" s="1">
         <v>12</v>
       </c>
@@ -25349,7 +25349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1739" s="1">
         <v>12</v>
       </c>
@@ -25363,7 +25363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1740" s="1">
         <v>12</v>
       </c>
@@ -25377,7 +25377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1741" s="1">
         <v>12</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1742" s="1">
         <v>12</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1743" s="1">
         <v>12</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1744" s="1">
         <v>12</v>
       </c>
@@ -25433,7 +25433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1745" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1745" s="1">
         <v>12</v>
       </c>
@@ -25447,7 +25447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1746" s="1">
         <v>12</v>
       </c>
@@ -25461,7 +25461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1747" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1747" s="1">
         <v>12</v>
       </c>
@@ -25475,7 +25475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1748" s="1">
         <v>12</v>
       </c>
@@ -25489,7 +25489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1749" s="1">
         <v>12</v>
       </c>
@@ -25517,7 +25517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1751" s="1">
         <v>12</v>
       </c>
@@ -25531,7 +25531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1752" s="1">
         <v>12</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1753" s="1">
         <v>12</v>
       </c>
@@ -25559,7 +25559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1754" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1754" s="1">
         <v>12</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1755" s="1">
         <v>12</v>
       </c>
@@ -25587,7 +25587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1756" s="1">
         <v>12</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1757" s="1">
         <v>12</v>
       </c>
@@ -25615,7 +25615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1758" s="1">
         <v>12</v>
       </c>
@@ -25629,7 +25629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1759" s="1">
         <v>12</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1760" s="1">
         <v>12</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1761" s="1">
         <v>12</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1762" s="1">
         <v>12</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1764" s="1">
         <v>12</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1765" s="1">
         <v>12</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1766" s="1">
         <v>12</v>
       </c>
@@ -25741,7 +25741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1767" s="1">
         <v>12</v>
       </c>
@@ -25777,13 +25777,13 @@
         <v>18</v>
       </c>
       <c r="C1769" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1769" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1770" s="1">
         <v>12</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1771" s="1">
         <v>12</v>
       </c>
@@ -25811,7 +25811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1772" s="1">
         <v>12</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1773" s="1">
         <v>12</v>
       </c>
@@ -25839,7 +25839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1774" s="1">
         <v>12</v>
       </c>
@@ -25853,7 +25853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1775" s="1">
         <v>12</v>
       </c>
@@ -25867,7 +25867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1776" s="1">
         <v>12</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1777" s="1">
         <v>12</v>
       </c>
@@ -25895,7 +25895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1778" s="1">
         <v>11</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1779" s="1">
         <v>11</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1780" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1780" s="1">
         <v>11</v>
       </c>
@@ -25937,7 +25937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
         <v>11</v>
       </c>
@@ -25951,7 +25951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1782" s="1">
         <v>11</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1783" s="1">
         <v>11</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1784" s="1">
         <v>11</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1785" s="1">
         <v>11</v>
       </c>
@@ -26007,7 +26007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1786" s="1">
         <v>11</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1787" s="1">
         <v>11</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1788" s="1">
         <v>11</v>
       </c>
@@ -26049,7 +26049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1789" s="1">
         <v>11</v>
       </c>
@@ -26063,7 +26063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1790" s="1">
         <v>11</v>
       </c>
@@ -26077,7 +26077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1791" s="1">
         <v>11</v>
       </c>
@@ -26091,7 +26091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1792" s="1">
         <v>11</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1793" s="1">
         <v>11</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1794" s="1">
         <v>11</v>
       </c>
@@ -26133,7 +26133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1795" s="1">
         <v>11</v>
       </c>
@@ -26147,7 +26147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1796" s="1">
         <v>11</v>
       </c>
@@ -26161,7 +26161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1797" s="1">
         <v>11</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1798" s="1">
         <v>11</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1799" s="1">
         <v>13</v>
       </c>
@@ -26203,7 +26203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1800" s="1">
         <v>13</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1801" s="1">
         <v>13</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1802" s="1">
         <v>13</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1803" s="1">
         <v>13</v>
       </c>
@@ -26259,7 +26259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1804" s="1">
         <v>13</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1805" s="1">
         <v>13</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1806" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1806" s="1">
         <v>13</v>
       </c>
@@ -26301,7 +26301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1807" s="1">
         <v>13</v>
       </c>
@@ -26315,7 +26315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1808" s="1">
         <v>13</v>
       </c>
@@ -26329,7 +26329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1809" s="1">
         <v>13</v>
       </c>
@@ -26343,7 +26343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1810" s="1">
         <v>13</v>
       </c>
@@ -26357,7 +26357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1811" s="1">
         <v>13</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1812" s="1">
         <v>13</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1813" s="1">
         <v>13</v>
       </c>
@@ -26399,7 +26399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1814" s="1">
         <v>13</v>
       </c>
@@ -26413,7 +26413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1815" s="1">
         <v>13</v>
       </c>
@@ -26427,7 +26427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1816" s="1">
         <v>13</v>
       </c>
@@ -26441,7 +26441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1817" s="1">
         <v>13</v>
       </c>
@@ -26455,7 +26455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1818" s="1">
         <v>13</v>
       </c>
@@ -26469,7 +26469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1819" s="1">
         <v>13</v>
       </c>
@@ -26484,10 +26484,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1777" xr:uid="{44DEFA72-B260-4F1D-9AF3-9A973D2C5115}">
+  <autoFilter ref="A1:E1819" xr:uid="{44DEFA72-B260-4F1D-9AF3-9A973D2C5115}">
     <filterColumn colId="1">
       <filters>
         <filter val="viridian_forest"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="26"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/db_mappings/obstacles.xlsx
+++ b/db_mappings/obstacles.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\PycharmProjects\Pokemon\db_mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410A5D2-9DEF-4BCB-A4E3-425ED19B2134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232E359-AF02-4C91-881B-69E5E7CDC17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="5115" windowWidth="16605" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="obstacles" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">obstacles!$A$1:$E$3019</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">obstacles!$A$1:$E$3671</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>mount_moon3</t>
+  </si>
+  <si>
+    <t>mount_moon2</t>
+  </si>
+  <si>
+    <t>mount_moon4</t>
   </si>
 </sst>
 </file>
@@ -986,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3436"/>
+  <dimension ref="A1:E3671"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3408" sqref="B3408"/>
+      <pane ySplit="1" topLeftCell="A3610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3621" sqref="E3621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46224,10 +46230,10 @@
         <v>34</v>
       </c>
       <c r="C3204" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3204" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3205" spans="1:4" x14ac:dyDescent="0.25">
@@ -46241,7 +46247,7 @@
         <v>11</v>
       </c>
       <c r="D3205" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3206" spans="1:4" x14ac:dyDescent="0.25">
@@ -46255,7 +46261,7 @@
         <v>11</v>
       </c>
       <c r="D3206" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3207" spans="1:4" x14ac:dyDescent="0.25">
@@ -46269,7 +46275,7 @@
         <v>11</v>
       </c>
       <c r="D3207" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3208" spans="1:4" x14ac:dyDescent="0.25">
@@ -46283,7 +46289,7 @@
         <v>11</v>
       </c>
       <c r="D3208" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3209" spans="1:4" x14ac:dyDescent="0.25">
@@ -46297,7 +46303,7 @@
         <v>11</v>
       </c>
       <c r="D3209" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3210" spans="1:4" x14ac:dyDescent="0.25">
@@ -46311,7 +46317,7 @@
         <v>11</v>
       </c>
       <c r="D3210" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3211" spans="1:4" x14ac:dyDescent="0.25">
@@ -46325,7 +46331,7 @@
         <v>11</v>
       </c>
       <c r="D3211" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3212" spans="1:4" x14ac:dyDescent="0.25">
@@ -46339,7 +46345,7 @@
         <v>11</v>
       </c>
       <c r="D3212" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3213" spans="1:4" x14ac:dyDescent="0.25">
@@ -46353,7 +46359,7 @@
         <v>11</v>
       </c>
       <c r="D3213" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3214" spans="1:4" x14ac:dyDescent="0.25">
@@ -46367,7 +46373,7 @@
         <v>11</v>
       </c>
       <c r="D3214" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3215" spans="1:4" x14ac:dyDescent="0.25">
@@ -46381,7 +46387,7 @@
         <v>11</v>
       </c>
       <c r="D3215" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3216" spans="1:4" x14ac:dyDescent="0.25">
@@ -46392,10 +46398,10 @@
         <v>34</v>
       </c>
       <c r="C3216" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3216" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3217" spans="1:4" x14ac:dyDescent="0.25">
@@ -46406,10 +46412,10 @@
         <v>34</v>
       </c>
       <c r="C3217" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3217" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3218" spans="1:4" x14ac:dyDescent="0.25">
@@ -46423,7 +46429,7 @@
         <v>12</v>
       </c>
       <c r="D3218" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3219" spans="1:4" x14ac:dyDescent="0.25">
@@ -46434,10 +46440,10 @@
         <v>34</v>
       </c>
       <c r="C3219" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3219" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3220" spans="1:4" x14ac:dyDescent="0.25">
@@ -46448,10 +46454,10 @@
         <v>34</v>
       </c>
       <c r="C3220" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3220" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3221" spans="1:4" x14ac:dyDescent="0.25">
@@ -46465,7 +46471,7 @@
         <v>13</v>
       </c>
       <c r="D3221" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3222" spans="1:4" x14ac:dyDescent="0.25">
@@ -46476,10 +46482,10 @@
         <v>34</v>
       </c>
       <c r="C3222" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3222" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3223" spans="1:4" x14ac:dyDescent="0.25">
@@ -46490,10 +46496,10 @@
         <v>34</v>
       </c>
       <c r="C3223" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3223" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3224" spans="1:4" x14ac:dyDescent="0.25">
@@ -46507,7 +46513,7 @@
         <v>14</v>
       </c>
       <c r="D3224" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3225" spans="1:4" x14ac:dyDescent="0.25">
@@ -46518,10 +46524,10 @@
         <v>34</v>
       </c>
       <c r="C3225" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3225" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3226" spans="1:4" x14ac:dyDescent="0.25">
@@ -46532,10 +46538,10 @@
         <v>34</v>
       </c>
       <c r="C3226" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3226" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3227" spans="1:4" x14ac:dyDescent="0.25">
@@ -46549,7 +46555,7 @@
         <v>15</v>
       </c>
       <c r="D3227" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3228" spans="1:4" x14ac:dyDescent="0.25">
@@ -46560,10 +46566,10 @@
         <v>34</v>
       </c>
       <c r="C3228" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3228" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3229" spans="1:4" x14ac:dyDescent="0.25">
@@ -46574,10 +46580,10 @@
         <v>34</v>
       </c>
       <c r="C3229" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3229" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3230" spans="1:4" x14ac:dyDescent="0.25">
@@ -46591,7 +46597,7 @@
         <v>16</v>
       </c>
       <c r="D3230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3231" spans="1:4" x14ac:dyDescent="0.25">
@@ -46605,7 +46611,7 @@
         <v>16</v>
       </c>
       <c r="D3231" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3232" spans="1:4" x14ac:dyDescent="0.25">
@@ -46619,7 +46625,7 @@
         <v>16</v>
       </c>
       <c r="D3232" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3233" spans="1:4" x14ac:dyDescent="0.25">
@@ -46633,7 +46639,7 @@
         <v>16</v>
       </c>
       <c r="D3233" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3234" spans="1:4" x14ac:dyDescent="0.25">
@@ -46647,7 +46653,7 @@
         <v>16</v>
       </c>
       <c r="D3234" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3235" spans="1:4" x14ac:dyDescent="0.25">
@@ -46661,7 +46667,7 @@
         <v>16</v>
       </c>
       <c r="D3235" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3236" spans="1:4" x14ac:dyDescent="0.25">
@@ -46675,7 +46681,7 @@
         <v>16</v>
       </c>
       <c r="D3236" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3237" spans="1:4" x14ac:dyDescent="0.25">
@@ -46689,7 +46695,7 @@
         <v>16</v>
       </c>
       <c r="D3237" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3238" spans="1:4" x14ac:dyDescent="0.25">
@@ -46703,7 +46709,7 @@
         <v>16</v>
       </c>
       <c r="D3238" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3239" spans="1:4" x14ac:dyDescent="0.25">
@@ -46717,7 +46723,7 @@
         <v>16</v>
       </c>
       <c r="D3239" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3240" spans="1:4" x14ac:dyDescent="0.25">
@@ -46731,7 +46737,7 @@
         <v>16</v>
       </c>
       <c r="D3240" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3241" spans="1:4" x14ac:dyDescent="0.25">
@@ -46745,7 +46751,7 @@
         <v>16</v>
       </c>
       <c r="D3241" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3242" spans="1:4" x14ac:dyDescent="0.25">
@@ -46759,7 +46765,7 @@
         <v>16</v>
       </c>
       <c r="D3242" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3243" spans="1:4" x14ac:dyDescent="0.25">
@@ -46773,7 +46779,7 @@
         <v>16</v>
       </c>
       <c r="D3243" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3244" spans="1:4" x14ac:dyDescent="0.25">
@@ -46787,7 +46793,7 @@
         <v>16</v>
       </c>
       <c r="D3244" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3245" spans="1:4" x14ac:dyDescent="0.25">
@@ -46801,7 +46807,7 @@
         <v>16</v>
       </c>
       <c r="D3245" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3246" spans="1:4" x14ac:dyDescent="0.25">
@@ -46815,7 +46821,7 @@
         <v>16</v>
       </c>
       <c r="D3246" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3247" spans="1:4" x14ac:dyDescent="0.25">
@@ -46829,7 +46835,7 @@
         <v>16</v>
       </c>
       <c r="D3247" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3248" spans="1:4" x14ac:dyDescent="0.25">
@@ -46840,10 +46846,10 @@
         <v>34</v>
       </c>
       <c r="C3248" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3248" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3249" spans="1:4" x14ac:dyDescent="0.25">
@@ -46854,10 +46860,10 @@
         <v>34</v>
       </c>
       <c r="C3249" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3249" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3250" spans="1:4" x14ac:dyDescent="0.25">
@@ -46871,7 +46877,7 @@
         <v>17</v>
       </c>
       <c r="D3250" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3251" spans="1:4" x14ac:dyDescent="0.25">
@@ -46885,7 +46891,7 @@
         <v>17</v>
       </c>
       <c r="D3251" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3252" spans="1:4" x14ac:dyDescent="0.25">
@@ -46899,7 +46905,7 @@
         <v>17</v>
       </c>
       <c r="D3252" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3253" spans="1:4" x14ac:dyDescent="0.25">
@@ -46913,7 +46919,7 @@
         <v>17</v>
       </c>
       <c r="D3253" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3254" spans="1:4" x14ac:dyDescent="0.25">
@@ -46927,7 +46933,7 @@
         <v>17</v>
       </c>
       <c r="D3254" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3255" spans="1:4" x14ac:dyDescent="0.25">
@@ -46941,7 +46947,7 @@
         <v>17</v>
       </c>
       <c r="D3255" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3256" spans="1:4" x14ac:dyDescent="0.25">
@@ -46955,7 +46961,7 @@
         <v>17</v>
       </c>
       <c r="D3256" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3257" spans="1:4" x14ac:dyDescent="0.25">
@@ -46969,7 +46975,7 @@
         <v>17</v>
       </c>
       <c r="D3257" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3258" spans="1:4" x14ac:dyDescent="0.25">
@@ -46983,7 +46989,7 @@
         <v>17</v>
       </c>
       <c r="D3258" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3259" spans="1:4" x14ac:dyDescent="0.25">
@@ -46997,7 +47003,7 @@
         <v>17</v>
       </c>
       <c r="D3259" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3260" spans="1:4" x14ac:dyDescent="0.25">
@@ -47011,7 +47017,7 @@
         <v>17</v>
       </c>
       <c r="D3260" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3261" spans="1:4" x14ac:dyDescent="0.25">
@@ -47025,7 +47031,7 @@
         <v>17</v>
       </c>
       <c r="D3261" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3262" spans="1:4" x14ac:dyDescent="0.25">
@@ -47039,7 +47045,7 @@
         <v>17</v>
       </c>
       <c r="D3262" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3263" spans="1:4" x14ac:dyDescent="0.25">
@@ -47053,7 +47059,7 @@
         <v>17</v>
       </c>
       <c r="D3263" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3264" spans="1:4" x14ac:dyDescent="0.25">
@@ -47067,7 +47073,7 @@
         <v>17</v>
       </c>
       <c r="D3264" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3265" spans="1:4" x14ac:dyDescent="0.25">
@@ -47081,7 +47087,7 @@
         <v>17</v>
       </c>
       <c r="D3265" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3266" spans="1:4" x14ac:dyDescent="0.25">
@@ -47095,7 +47101,7 @@
         <v>17</v>
       </c>
       <c r="D3266" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3267" spans="1:4" x14ac:dyDescent="0.25">
@@ -47109,7 +47115,7 @@
         <v>17</v>
       </c>
       <c r="D3267" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3268" spans="1:4" x14ac:dyDescent="0.25">
@@ -47120,10 +47126,10 @@
         <v>34</v>
       </c>
       <c r="C3268" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3268" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3269" spans="1:4" x14ac:dyDescent="0.25">
@@ -47134,10 +47140,10 @@
         <v>34</v>
       </c>
       <c r="C3269" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3269" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3270" spans="1:4" x14ac:dyDescent="0.25">
@@ -47148,7 +47154,7 @@
         <v>34</v>
       </c>
       <c r="C3270" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3270" s="1">
         <v>26</v>
@@ -47162,7 +47168,7 @@
         <v>34</v>
       </c>
       <c r="C3271" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3271" s="1">
         <v>26</v>
@@ -47176,7 +47182,7 @@
         <v>34</v>
       </c>
       <c r="C3272" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3272" s="1">
         <v>26</v>
@@ -47190,7 +47196,7 @@
         <v>34</v>
       </c>
       <c r="C3273" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3273" s="1">
         <v>26</v>
@@ -47204,7 +47210,7 @@
         <v>34</v>
       </c>
       <c r="C3274" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3274" s="1">
         <v>26</v>
@@ -47218,7 +47224,7 @@
         <v>34</v>
       </c>
       <c r="C3275" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3275" s="1">
         <v>26</v>
@@ -47232,7 +47238,7 @@
         <v>34</v>
       </c>
       <c r="C3276" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3276" s="1">
         <v>26</v>
@@ -47246,7 +47252,7 @@
         <v>34</v>
       </c>
       <c r="C3277" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3277" s="1">
         <v>26</v>
@@ -47260,7 +47266,7 @@
         <v>34</v>
       </c>
       <c r="C3278" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3278" s="1">
         <v>26</v>
@@ -47274,7 +47280,7 @@
         <v>34</v>
       </c>
       <c r="C3279" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3279" s="1">
         <v>26</v>
@@ -47288,7 +47294,7 @@
         <v>34</v>
       </c>
       <c r="C3280" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3280" s="1">
         <v>26</v>
@@ -47302,7 +47308,7 @@
         <v>34</v>
       </c>
       <c r="C3281" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3281" s="1">
         <v>26</v>
@@ -47316,7 +47322,7 @@
         <v>34</v>
       </c>
       <c r="C3282" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3282" s="1">
         <v>26</v>
@@ -47330,7 +47336,7 @@
         <v>34</v>
       </c>
       <c r="C3283" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3283" s="1">
         <v>26</v>
@@ -47344,7 +47350,7 @@
         <v>34</v>
       </c>
       <c r="C3284" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3284" s="1">
         <v>26</v>
@@ -47358,7 +47364,7 @@
         <v>34</v>
       </c>
       <c r="C3285" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3285" s="1">
         <v>26</v>
@@ -47372,7 +47378,7 @@
         <v>34</v>
       </c>
       <c r="C3286" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3286" s="1">
         <v>26</v>
@@ -47386,10 +47392,10 @@
         <v>34</v>
       </c>
       <c r="C3287" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D3287" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3288" spans="1:4" x14ac:dyDescent="0.25">
@@ -47400,10 +47406,10 @@
         <v>34</v>
       </c>
       <c r="C3288" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D3288" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3289" spans="1:4" x14ac:dyDescent="0.25">
@@ -47414,7 +47420,7 @@
         <v>34</v>
       </c>
       <c r="C3289" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3289" s="1">
         <v>27</v>
@@ -47428,7 +47434,7 @@
         <v>34</v>
       </c>
       <c r="C3290" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3290" s="1">
         <v>27</v>
@@ -47442,7 +47448,7 @@
         <v>34</v>
       </c>
       <c r="C3291" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3291" s="1">
         <v>27</v>
@@ -47456,7 +47462,7 @@
         <v>34</v>
       </c>
       <c r="C3292" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3292" s="1">
         <v>27</v>
@@ -47470,7 +47476,7 @@
         <v>34</v>
       </c>
       <c r="C3293" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3293" s="1">
         <v>27</v>
@@ -47484,7 +47490,7 @@
         <v>34</v>
       </c>
       <c r="C3294" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3294" s="1">
         <v>27</v>
@@ -47498,7 +47504,7 @@
         <v>34</v>
       </c>
       <c r="C3295" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3295" s="1">
         <v>27</v>
@@ -47512,7 +47518,7 @@
         <v>34</v>
       </c>
       <c r="C3296" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3296" s="1">
         <v>27</v>
@@ -47526,7 +47532,7 @@
         <v>34</v>
       </c>
       <c r="C3297" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3297" s="1">
         <v>27</v>
@@ -47540,7 +47546,7 @@
         <v>34</v>
       </c>
       <c r="C3298" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3298" s="1">
         <v>27</v>
@@ -47554,7 +47560,7 @@
         <v>34</v>
       </c>
       <c r="C3299" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3299" s="1">
         <v>27</v>
@@ -47568,7 +47574,7 @@
         <v>34</v>
       </c>
       <c r="C3300" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3300" s="1">
         <v>27</v>
@@ -47582,7 +47588,7 @@
         <v>34</v>
       </c>
       <c r="C3301" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3301" s="1">
         <v>27</v>
@@ -47596,7 +47602,7 @@
         <v>34</v>
       </c>
       <c r="C3302" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3302" s="1">
         <v>27</v>
@@ -47610,7 +47616,7 @@
         <v>34</v>
       </c>
       <c r="C3303" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3303" s="1">
         <v>27</v>
@@ -47624,7 +47630,7 @@
         <v>34</v>
       </c>
       <c r="C3304" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3304" s="1">
         <v>27</v>
@@ -47638,7 +47644,7 @@
         <v>34</v>
       </c>
       <c r="C3305" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3305" s="1">
         <v>27</v>
@@ -47652,10 +47658,10 @@
         <v>34</v>
       </c>
       <c r="C3306" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3306" s="1">
         <v>28</v>
-      </c>
-      <c r="D3306" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="3307" spans="1:4" x14ac:dyDescent="0.25">
@@ -47666,10 +47672,10 @@
         <v>34</v>
       </c>
       <c r="C3307" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D3307" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3308" spans="1:4" x14ac:dyDescent="0.25">
@@ -47680,7 +47686,7 @@
         <v>34</v>
       </c>
       <c r="C3308" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3308" s="1">
         <v>28</v>
@@ -47694,7 +47700,7 @@
         <v>34</v>
       </c>
       <c r="C3309" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3309" s="1">
         <v>28</v>
@@ -47708,7 +47714,7 @@
         <v>34</v>
       </c>
       <c r="C3310" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3310" s="1">
         <v>28</v>
@@ -47722,7 +47728,7 @@
         <v>34</v>
       </c>
       <c r="C3311" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3311" s="1">
         <v>28</v>
@@ -47736,7 +47742,7 @@
         <v>34</v>
       </c>
       <c r="C3312" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3312" s="1">
         <v>28</v>
@@ -47750,7 +47756,7 @@
         <v>34</v>
       </c>
       <c r="C3313" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3313" s="1">
         <v>28</v>
@@ -47764,7 +47770,7 @@
         <v>34</v>
       </c>
       <c r="C3314" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3314" s="1">
         <v>28</v>
@@ -47778,7 +47784,7 @@
         <v>34</v>
       </c>
       <c r="C3315" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3315" s="1">
         <v>28</v>
@@ -47792,7 +47798,7 @@
         <v>34</v>
       </c>
       <c r="C3316" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3316" s="1">
         <v>28</v>
@@ -47806,7 +47812,7 @@
         <v>34</v>
       </c>
       <c r="C3317" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3317" s="1">
         <v>28</v>
@@ -47820,7 +47826,7 @@
         <v>34</v>
       </c>
       <c r="C3318" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3318" s="1">
         <v>28</v>
@@ -47834,7 +47840,7 @@
         <v>34</v>
       </c>
       <c r="C3319" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3319" s="1">
         <v>28</v>
@@ -47848,7 +47854,7 @@
         <v>34</v>
       </c>
       <c r="C3320" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3320" s="1">
         <v>28</v>
@@ -47862,7 +47868,7 @@
         <v>34</v>
       </c>
       <c r="C3321" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3321" s="1">
         <v>28</v>
@@ -47876,7 +47882,7 @@
         <v>34</v>
       </c>
       <c r="C3322" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3322" s="1">
         <v>28</v>
@@ -47890,7 +47896,7 @@
         <v>34</v>
       </c>
       <c r="C3323" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3323" s="1">
         <v>28</v>
@@ -47904,7 +47910,7 @@
         <v>34</v>
       </c>
       <c r="C3324" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3324" s="1">
         <v>28</v>
@@ -47921,7 +47927,7 @@
         <v>28</v>
       </c>
       <c r="D3325" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3326" spans="1:4" x14ac:dyDescent="0.25">
@@ -47932,10 +47938,10 @@
         <v>34</v>
       </c>
       <c r="C3326" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3326" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3327" spans="1:4" x14ac:dyDescent="0.25">
@@ -47949,7 +47955,7 @@
         <v>28</v>
       </c>
       <c r="D3327" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3328" spans="1:4" x14ac:dyDescent="0.25">
@@ -47963,7 +47969,7 @@
         <v>28</v>
       </c>
       <c r="D3328" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3329" spans="1:4" x14ac:dyDescent="0.25">
@@ -47977,7 +47983,7 @@
         <v>28</v>
       </c>
       <c r="D3329" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3330" spans="1:4" x14ac:dyDescent="0.25">
@@ -47991,7 +47997,7 @@
         <v>28</v>
       </c>
       <c r="D3330" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3331" spans="1:4" x14ac:dyDescent="0.25">
@@ -48005,7 +48011,7 @@
         <v>28</v>
       </c>
       <c r="D3331" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3332" spans="1:4" x14ac:dyDescent="0.25">
@@ -48019,7 +48025,7 @@
         <v>28</v>
       </c>
       <c r="D3332" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3333" spans="1:4" x14ac:dyDescent="0.25">
@@ -48033,7 +48039,7 @@
         <v>28</v>
       </c>
       <c r="D3333" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3334" spans="1:4" x14ac:dyDescent="0.25">
@@ -48044,10 +48050,10 @@
         <v>34</v>
       </c>
       <c r="C3334" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3334" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3335" spans="1:4" x14ac:dyDescent="0.25">
@@ -48058,10 +48064,10 @@
         <v>34</v>
       </c>
       <c r="C3335" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3335" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3336" spans="1:4" x14ac:dyDescent="0.25">
@@ -48075,7 +48081,7 @@
         <v>29</v>
       </c>
       <c r="D3336" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3337" spans="1:4" x14ac:dyDescent="0.25">
@@ -48089,7 +48095,7 @@
         <v>29</v>
       </c>
       <c r="D3337" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3338" spans="1:4" x14ac:dyDescent="0.25">
@@ -48103,7 +48109,7 @@
         <v>29</v>
       </c>
       <c r="D3338" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3339" spans="1:4" x14ac:dyDescent="0.25">
@@ -48117,7 +48123,7 @@
         <v>29</v>
       </c>
       <c r="D3339" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3340" spans="1:4" x14ac:dyDescent="0.25">
@@ -48131,7 +48137,7 @@
         <v>29</v>
       </c>
       <c r="D3340" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3341" spans="1:4" x14ac:dyDescent="0.25">
@@ -48145,7 +48151,7 @@
         <v>29</v>
       </c>
       <c r="D3341" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3342" spans="1:4" x14ac:dyDescent="0.25">
@@ -48159,7 +48165,7 @@
         <v>29</v>
       </c>
       <c r="D3342" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3343" spans="1:4" x14ac:dyDescent="0.25">
@@ -48170,10 +48176,10 @@
         <v>34</v>
       </c>
       <c r="C3343" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3343" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3344" spans="1:4" x14ac:dyDescent="0.25">
@@ -48184,10 +48190,10 @@
         <v>34</v>
       </c>
       <c r="C3344" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3344" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3345" spans="1:4" x14ac:dyDescent="0.25">
@@ -48198,7 +48204,7 @@
         <v>34</v>
       </c>
       <c r="C3345" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3345" s="1">
         <v>18</v>
@@ -48212,7 +48218,7 @@
         <v>34</v>
       </c>
       <c r="C3346" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3346" s="1">
         <v>18</v>
@@ -48226,10 +48232,10 @@
         <v>34</v>
       </c>
       <c r="C3347" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3347" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3348" spans="1:4" x14ac:dyDescent="0.25">
@@ -48240,10 +48246,10 @@
         <v>34</v>
       </c>
       <c r="C3348" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3348" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3349" spans="1:4" x14ac:dyDescent="0.25">
@@ -48254,7 +48260,7 @@
         <v>34</v>
       </c>
       <c r="C3349" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3349" s="1">
         <v>19</v>
@@ -48268,7 +48274,7 @@
         <v>34</v>
       </c>
       <c r="C3350" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3350" s="1">
         <v>19</v>
@@ -48282,10 +48288,10 @@
         <v>34</v>
       </c>
       <c r="C3351" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3351" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3352" spans="1:4" x14ac:dyDescent="0.25">
@@ -48296,10 +48302,10 @@
         <v>34</v>
       </c>
       <c r="C3352" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3352" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3353" spans="1:4" x14ac:dyDescent="0.25">
@@ -48310,7 +48316,7 @@
         <v>34</v>
       </c>
       <c r="C3353" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3353" s="1">
         <v>17</v>
@@ -48324,7 +48330,7 @@
         <v>34</v>
       </c>
       <c r="C3354" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3354" s="1">
         <v>17</v>
@@ -48338,10 +48344,10 @@
         <v>34</v>
       </c>
       <c r="C3355" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3355" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3356" spans="1:4" x14ac:dyDescent="0.25">
@@ -48355,7 +48361,7 @@
         <v>33</v>
       </c>
       <c r="D3356" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3357" spans="1:4" x14ac:dyDescent="0.25">
@@ -48369,7 +48375,7 @@
         <v>33</v>
       </c>
       <c r="D3357" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3358" spans="1:4" x14ac:dyDescent="0.25">
@@ -48383,7 +48389,7 @@
         <v>33</v>
       </c>
       <c r="D3358" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3359" spans="1:4" x14ac:dyDescent="0.25">
@@ -48397,7 +48403,7 @@
         <v>33</v>
       </c>
       <c r="D3359" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3360" spans="1:4" x14ac:dyDescent="0.25">
@@ -48411,7 +48417,7 @@
         <v>33</v>
       </c>
       <c r="D3360" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3361" spans="1:4" x14ac:dyDescent="0.25">
@@ -48425,7 +48431,7 @@
         <v>33</v>
       </c>
       <c r="D3361" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3362" spans="1:4" x14ac:dyDescent="0.25">
@@ -48439,7 +48445,7 @@
         <v>33</v>
       </c>
       <c r="D3362" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3363" spans="1:4" x14ac:dyDescent="0.25">
@@ -48450,10 +48456,10 @@
         <v>34</v>
       </c>
       <c r="C3363" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3363" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3364" spans="1:4" x14ac:dyDescent="0.25">
@@ -48464,10 +48470,10 @@
         <v>34</v>
       </c>
       <c r="C3364" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3364" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3365" spans="1:4" x14ac:dyDescent="0.25">
@@ -48481,7 +48487,7 @@
         <v>34</v>
       </c>
       <c r="D3365" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3366" spans="1:4" x14ac:dyDescent="0.25">
@@ -48495,7 +48501,7 @@
         <v>34</v>
       </c>
       <c r="D3366" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3367" spans="1:4" x14ac:dyDescent="0.25">
@@ -48509,7 +48515,7 @@
         <v>34</v>
       </c>
       <c r="D3367" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3368" spans="1:4" x14ac:dyDescent="0.25">
@@ -48523,7 +48529,7 @@
         <v>34</v>
       </c>
       <c r="D3368" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3369" spans="1:4" x14ac:dyDescent="0.25">
@@ -48537,7 +48543,7 @@
         <v>34</v>
       </c>
       <c r="D3369" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3370" spans="1:4" x14ac:dyDescent="0.25">
@@ -48551,7 +48557,7 @@
         <v>34</v>
       </c>
       <c r="D3370" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3371" spans="1:4" x14ac:dyDescent="0.25">
@@ -48562,10 +48568,10 @@
         <v>34</v>
       </c>
       <c r="C3371" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3371" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3372" spans="1:4" x14ac:dyDescent="0.25">
@@ -48576,10 +48582,10 @@
         <v>34</v>
       </c>
       <c r="C3372" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3372" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3373" spans="1:4" x14ac:dyDescent="0.25">
@@ -48593,7 +48599,7 @@
         <v>35</v>
       </c>
       <c r="D3373" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3374" spans="1:4" x14ac:dyDescent="0.25">
@@ -48607,7 +48613,7 @@
         <v>35</v>
       </c>
       <c r="D3374" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3375" spans="1:4" x14ac:dyDescent="0.25">
@@ -48621,7 +48627,7 @@
         <v>35</v>
       </c>
       <c r="D3375" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3376" spans="1:4" x14ac:dyDescent="0.25">
@@ -48635,7 +48641,7 @@
         <v>35</v>
       </c>
       <c r="D3376" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3377" spans="1:4" x14ac:dyDescent="0.25">
@@ -48649,7 +48655,7 @@
         <v>35</v>
       </c>
       <c r="D3377" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3378" spans="1:4" x14ac:dyDescent="0.25">
@@ -48663,7 +48669,7 @@
         <v>35</v>
       </c>
       <c r="D3378" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3379" spans="1:4" x14ac:dyDescent="0.25">
@@ -48674,10 +48680,10 @@
         <v>34</v>
       </c>
       <c r="C3379" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3379" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3380" spans="1:4" x14ac:dyDescent="0.25">
@@ -48688,10 +48694,10 @@
         <v>34</v>
       </c>
       <c r="C3380" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3380" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3381" spans="1:4" x14ac:dyDescent="0.25">
@@ -48705,7 +48711,7 @@
         <v>36</v>
       </c>
       <c r="D3381" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3382" spans="1:4" x14ac:dyDescent="0.25">
@@ -48719,7 +48725,7 @@
         <v>36</v>
       </c>
       <c r="D3382" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3383" spans="1:4" x14ac:dyDescent="0.25">
@@ -48733,7 +48739,7 @@
         <v>36</v>
       </c>
       <c r="D3383" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3384" spans="1:4" x14ac:dyDescent="0.25">
@@ -48747,7 +48753,7 @@
         <v>36</v>
       </c>
       <c r="D3384" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3385" spans="1:4" x14ac:dyDescent="0.25">
@@ -48761,7 +48767,7 @@
         <v>36</v>
       </c>
       <c r="D3385" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3386" spans="1:4" x14ac:dyDescent="0.25">
@@ -48775,7 +48781,7 @@
         <v>36</v>
       </c>
       <c r="D3386" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3387" spans="1:4" x14ac:dyDescent="0.25">
@@ -48786,10 +48792,10 @@
         <v>34</v>
       </c>
       <c r="C3387" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3387" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3388" spans="1:4" x14ac:dyDescent="0.25">
@@ -48800,10 +48806,10 @@
         <v>34</v>
       </c>
       <c r="C3388" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3388" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3389" spans="1:4" x14ac:dyDescent="0.25">
@@ -48817,7 +48823,7 @@
         <v>33</v>
       </c>
       <c r="D3389" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3390" spans="1:4" x14ac:dyDescent="0.25">
@@ -48831,7 +48837,7 @@
         <v>33</v>
       </c>
       <c r="D3390" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3391" spans="1:4" x14ac:dyDescent="0.25">
@@ -48842,10 +48848,10 @@
         <v>34</v>
       </c>
       <c r="C3391" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3391" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3392" spans="1:4" x14ac:dyDescent="0.25">
@@ -48856,10 +48862,10 @@
         <v>34</v>
       </c>
       <c r="C3392" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3392" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3393" spans="1:4" x14ac:dyDescent="0.25">
@@ -48870,10 +48876,10 @@
         <v>34</v>
       </c>
       <c r="C3393" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3393" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3394" spans="1:4" x14ac:dyDescent="0.25">
@@ -48884,10 +48890,10 @@
         <v>34</v>
       </c>
       <c r="C3394" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3394" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3395" spans="1:4" x14ac:dyDescent="0.25">
@@ -48901,7 +48907,7 @@
         <v>28</v>
       </c>
       <c r="D3395" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3396" spans="1:4" x14ac:dyDescent="0.25">
@@ -48915,7 +48921,7 @@
         <v>28</v>
       </c>
       <c r="D3396" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3397" spans="1:4" x14ac:dyDescent="0.25">
@@ -48926,10 +48932,10 @@
         <v>34</v>
       </c>
       <c r="C3397" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3397" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3398" spans="1:4" x14ac:dyDescent="0.25">
@@ -48940,10 +48946,10 @@
         <v>34</v>
       </c>
       <c r="C3398" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3398" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3399" spans="1:4" x14ac:dyDescent="0.25">
@@ -48957,7 +48963,7 @@
         <v>27</v>
       </c>
       <c r="D3399" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3400" spans="1:4" x14ac:dyDescent="0.25">
@@ -48971,7 +48977,7 @@
         <v>27</v>
       </c>
       <c r="D3400" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3401" spans="1:4" x14ac:dyDescent="0.25">
@@ -48982,10 +48988,10 @@
         <v>34</v>
       </c>
       <c r="C3401" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3401" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3402" spans="1:4" x14ac:dyDescent="0.25">
@@ -48999,7 +49005,7 @@
         <v>27</v>
       </c>
       <c r="D3402" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3403" spans="1:4" x14ac:dyDescent="0.25">
@@ -49010,7 +49016,7 @@
         <v>34</v>
       </c>
       <c r="C3403" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3403" s="1">
         <v>13</v>
@@ -49024,10 +49030,10 @@
         <v>34</v>
       </c>
       <c r="C3404" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3404" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3405" spans="1:4" x14ac:dyDescent="0.25">
@@ -49038,10 +49044,10 @@
         <v>34</v>
       </c>
       <c r="C3405" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3405" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3406" spans="1:4" x14ac:dyDescent="0.25">
@@ -49055,7 +49061,7 @@
         <v>22</v>
       </c>
       <c r="D3406" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3407" spans="1:4" x14ac:dyDescent="0.25">
@@ -49069,7 +49075,7 @@
         <v>22</v>
       </c>
       <c r="D3407" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3408" spans="1:4" x14ac:dyDescent="0.25">
@@ -49080,10 +49086,10 @@
         <v>34</v>
       </c>
       <c r="C3408" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3408" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:4" x14ac:dyDescent="0.25">
@@ -49094,10 +49100,10 @@
         <v>34</v>
       </c>
       <c r="C3409" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3409" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3410" spans="1:4" x14ac:dyDescent="0.25">
@@ -49111,7 +49117,7 @@
         <v>21</v>
       </c>
       <c r="D3410" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3411" spans="1:4" x14ac:dyDescent="0.25">
@@ -49125,7 +49131,7 @@
         <v>21</v>
       </c>
       <c r="D3411" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3412" spans="1:4" x14ac:dyDescent="0.25">
@@ -49139,7 +49145,7 @@
         <v>21</v>
       </c>
       <c r="D3412" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3413" spans="1:4" x14ac:dyDescent="0.25">
@@ -49153,7 +49159,7 @@
         <v>21</v>
       </c>
       <c r="D3413" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3414" spans="1:4" x14ac:dyDescent="0.25">
@@ -49167,7 +49173,7 @@
         <v>21</v>
       </c>
       <c r="D3414" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3415" spans="1:4" x14ac:dyDescent="0.25">
@@ -49181,7 +49187,7 @@
         <v>21</v>
       </c>
       <c r="D3415" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3416" spans="1:4" x14ac:dyDescent="0.25">
@@ -49195,7 +49201,7 @@
         <v>21</v>
       </c>
       <c r="D3416" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3417" spans="1:4" x14ac:dyDescent="0.25">
@@ -49209,7 +49215,7 @@
         <v>21</v>
       </c>
       <c r="D3417" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3418" spans="1:4" x14ac:dyDescent="0.25">
@@ -49223,7 +49229,7 @@
         <v>21</v>
       </c>
       <c r="D3418" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3419" spans="1:4" x14ac:dyDescent="0.25">
@@ -49234,7 +49240,7 @@
         <v>34</v>
       </c>
       <c r="C3419" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3419" s="1">
         <v>9</v>
@@ -49248,7 +49254,7 @@
         <v>34</v>
       </c>
       <c r="C3420" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3420" s="1">
         <v>9</v>
@@ -49262,7 +49268,7 @@
         <v>34</v>
       </c>
       <c r="C3421" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3421" s="1">
         <v>9</v>
@@ -49276,7 +49282,7 @@
         <v>34</v>
       </c>
       <c r="C3422" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3422" s="1">
         <v>9</v>
@@ -49290,7 +49296,7 @@
         <v>34</v>
       </c>
       <c r="C3423" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3423" s="1">
         <v>9</v>
@@ -49304,7 +49310,7 @@
         <v>34</v>
       </c>
       <c r="C3424" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3424" s="1">
         <v>9</v>
@@ -49318,7 +49324,7 @@
         <v>34</v>
       </c>
       <c r="C3425" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3425" s="1">
         <v>9</v>
@@ -49332,7 +49338,7 @@
         <v>34</v>
       </c>
       <c r="C3426" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3426" s="1">
         <v>9</v>
@@ -49346,7 +49352,7 @@
         <v>34</v>
       </c>
       <c r="C3427" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3427" s="1">
         <v>9</v>
@@ -49360,7 +49366,7 @@
         <v>34</v>
       </c>
       <c r="C3428" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3428" s="1">
         <v>9</v>
@@ -49374,7 +49380,7 @@
         <v>34</v>
       </c>
       <c r="C3429" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3429" s="1">
         <v>9</v>
@@ -49388,7 +49394,7 @@
         <v>34</v>
       </c>
       <c r="C3430" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3430" s="1">
         <v>9</v>
@@ -49402,7 +49408,7 @@
         <v>34</v>
       </c>
       <c r="C3431" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3431" s="1">
         <v>9</v>
@@ -49416,7 +49422,7 @@
         <v>34</v>
       </c>
       <c r="C3432" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3432" s="1">
         <v>9</v>
@@ -49430,7 +49436,7 @@
         <v>34</v>
       </c>
       <c r="C3433" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3433" s="1">
         <v>9</v>
@@ -49438,48 +49444,3341 @@
     </row>
     <row r="3434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3434" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3434" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3434" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D3434" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3435" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3435" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3435" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D3435" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3436" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3436" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3436" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3436" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3437" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3437" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3437" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3437" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3438" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3438" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3438" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3438" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3439" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3439" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3439" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3439" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3440" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3440" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3440" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3440" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3441" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3441" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3441" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3441" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3442" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3442" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3442" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3442" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3443" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3443" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3443" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3443" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3444" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3444" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3444" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3444" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3445" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3445" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3445" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3445" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3446" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3446" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3446" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3446" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3447" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3447" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3447" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3447" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3448" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3448" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3448" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3448" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3449" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3449" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3449" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3449" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3450" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3450" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3450" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3450" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3451" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3451" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3451" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3451" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3452" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3452" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3452" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3452" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3453" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3453" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3453" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3453" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3454" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3454" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3454" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3454" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3455" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3455" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3455" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3455" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3456" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3456" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3456" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3456" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3457" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3457" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3457" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3457" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3458" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3458" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3458" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3458" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3459" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3459" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3459" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3460" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3460" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3460" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3460" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3461" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3461" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3461" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3461" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3462" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3462" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3462" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3462" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3463" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3463" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3463" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3463" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3464" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3464" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3464" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3464" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3465" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3465" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3465" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3465" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3466" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3466" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3466" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3466" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3467" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3467" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3467" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3467" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3468" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3468" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3468" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3468" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3469" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3469" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3469" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3469" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3470" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3470" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3470" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3470" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3471" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3471" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3471" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3471" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3472" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3472" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3472" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3472" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3473" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3473" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3473" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3473" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3474" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3474" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3474" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3474" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3475" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3475" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3475" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3475" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3476" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3476" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3476" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3476" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3477" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3477" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3477" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3477" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3478" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3478" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3478" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3478" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3479" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3479" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3479" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3479" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3480" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3480" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3480" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3480" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3481" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3481" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3481" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3481" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3482" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3482" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3482" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3482" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3483" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3483" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3483" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3483" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3484" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3484" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3484" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3484" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3485" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3485" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3485" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3485" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3486" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3486" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3486" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3486" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3487" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3487" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3487" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3487" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3488" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3488" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3488" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3488" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3489" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3489" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3489" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3489" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3490" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3490" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3490" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3490" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3491" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3491" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3491" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3491" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3492" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3492" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3492" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3492" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3493" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3493" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3493" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3493" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3494" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3494" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3494" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3494" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3495" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3495" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3495" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3495" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3496" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3496" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3496" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3496" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3497" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3497" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3497" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3497" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3498" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3498" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3498" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3498" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3499" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3499" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3499" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3499" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3500" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3500" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3500" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3500" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3501" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3501" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3501" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3501" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3502" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3502" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3502" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3502" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3503" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3503" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3503" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3503" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3504" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3504" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3504" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3504" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3505" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3505" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3505" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3505" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3506" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3506" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3506" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3506" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3507" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3507" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3507" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3507" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3508" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3508" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3508" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3508" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3509" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3509" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3509" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3509" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3510" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3510" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3510" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3510" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3511" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3511" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3511" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3511" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3512" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3512" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3512" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3512" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3513" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3513" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3513" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3513" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3514" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3514" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3514" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3514" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3515" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3515" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3515" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3515" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3516" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3516" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3516" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3516" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3517" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3517" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3517" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3517" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3518" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3518" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3518" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3518" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3519" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3519" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3519" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3519" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3520" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3520" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3520" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3520" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3521" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3521" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3521" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3521" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3522" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3522" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3522" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3522" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3523" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3523" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3523" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3523" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3524" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3524" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3524" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3524" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3525" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3525" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3525" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3525" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3526" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3526" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3526" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3526" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3527" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3527" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3527" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3527" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3528" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3528" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3528" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3528" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3529" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3529" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3529" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3529" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3530" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3530" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3530" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3530" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3531" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3531" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3531" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3531" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3532" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3532" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3532" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3532" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3533" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3533" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3533" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3533" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3534" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3534" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3534" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3534" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3535" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3535" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3535" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3535" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3536" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3536" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3536" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3536" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3537" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3537" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3537" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3537" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3538" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3538" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3538" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3538" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3539" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3539" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3539" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3539" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3540" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3540" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3540" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3540" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3541" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3541" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3541" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3541" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3542" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3542" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3542" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3542" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3543" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3543" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3543" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3544" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3544" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3544" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3544" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3545" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3545" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3545" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3545" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3546" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3546" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3546" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3546" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3547" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3547" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3547" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3547" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3548" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3548" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3548" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3548" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3549" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3549" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3549" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3549" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3550" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3550" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3550" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3550" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3551" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3551" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3551" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3551" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3552" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3552" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3552" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3552" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3553" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3553" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3553" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3553" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3554" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3554" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3554" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3554" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3555" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3555" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3555" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3555" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3556" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3556" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3556" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3556" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3557" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3557" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3557" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3557" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3558" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3558" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3558" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3558" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3559" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3559" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3559" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3559" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3560" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3560" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3560" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3560" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3561" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3561" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3561" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3561" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3562" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3562" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3562" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3562" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3563" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3563" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3563" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3563" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3564" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3564" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3564" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3564" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3565" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3565" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3565" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3565" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3566" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3566" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3566" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3566" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3567" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3567" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3567" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3567" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3568" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3568" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3568" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3568" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3569" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3569" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3569" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3569" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3570" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3570" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3570" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3570" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3571" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3571" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3571" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3571" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3572" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3572" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3572" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3572" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3573" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3573" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3573" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3573" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3574" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3574" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3574" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3574" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3575" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3575" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3575" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3575" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3576" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3576" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3576" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3577" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3577" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3577" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3577" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3578" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3578" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3578" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3578" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3579" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3579" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3579" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3579" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3580" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3580" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3580" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3580" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3581" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3581" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3581" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3581" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3582" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3582" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3582" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3582" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3583" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3583" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3583" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3583" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3584" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3584" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3584" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3584" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3585" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3585" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3585" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3585" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3586" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3586" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3586" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3586" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3587" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3587" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3587" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3587" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3588" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3588" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3588" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3588" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3589" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3589" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3589" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3589" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3590" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3590" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3590" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3590" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3591" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3591" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3591" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3591" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3592" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3592" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3592" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3592" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3593" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3593" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3593" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3593" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3594" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3594" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3594" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3594" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3595" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3595" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3595" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3595" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3596" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3596" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3596" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3596" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3597" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3597" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3597" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3597" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3598" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3598" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3598" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3598" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3599" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3599" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3599" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3599" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3600" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3600" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3600" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3600" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3601" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3601" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3601" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3601" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3602" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3602" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3602" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3602" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3603" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3603" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3603" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3603" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3604" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3604" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3604" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3604" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3605" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3605" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3605" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3605" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3606" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3606" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3606" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3606" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3607" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3607" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3607" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3607" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3608" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3608" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3608" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3608" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3609" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3609" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3609" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3609" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3610" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3610" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3610" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3610" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3611" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3611" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3611" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3611" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3612" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3612" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3612" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3612" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3613" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3613" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3613" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3613" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3614" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3614" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3614" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3614" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3615" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3615" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3615" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3615" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3616" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3616" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3616" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3616" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3617" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3617" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3617" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3617" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3618" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3618" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3618" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3618" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3619" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3619" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3619" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3619" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3620" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3620" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3620" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3620" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3621" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3621" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3621" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3621" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3622" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3622" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3622" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3622" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3623" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3623" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3623" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3623" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3624" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3624" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3624" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3624" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3625" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3625" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3625" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3625" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3626" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3626" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3626" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3626" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3627" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3627" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3627" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3627" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3628" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3628" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3628" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3628" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3629" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3629" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3629" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3629" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3630" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3630" t="s">
         <v>34</v>
       </c>
-      <c r="C3436" s="1">
+      <c r="C3630" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3630" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3631" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3631" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3631" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3631" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3632" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3632" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3632" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3632" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3633" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3633" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3633" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3633" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3634" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3634" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3634" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3634" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3635" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3635" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3635" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3635" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3636" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3636" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3636" s="1">
+        <v>24</v>
+      </c>
+      <c r="D3636" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3637" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3637" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3637" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3637" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3638" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3638" s="1">
+        <v>26</v>
+      </c>
+      <c r="D3638" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3639" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3639" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3639" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3639" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3640" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3640" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3640" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3640" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3641" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3641" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3641" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3641" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3642" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3642" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3642" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3642" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3643" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3643" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3643" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3643" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3644" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3644" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3644" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3644" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3645" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3645" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3645" s="1">
+        <v>24</v>
+      </c>
+      <c r="D3645" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3646" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3646" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3646" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3646" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3647" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3647" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3647" s="1">
+        <v>26</v>
+      </c>
+      <c r="D3647" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3648" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3648" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3648" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3648" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3649" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3649" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3649" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3649" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3650" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3650" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3650" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3650" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3651" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3651" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3651" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3651" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3652" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3652" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3652" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3652" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3652" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3653" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3653" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3653" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3653" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3654" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3654" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3654" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3654" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3655" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3655" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3655" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3655" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3656" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3656" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3656" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3656" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3657" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3657" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3657" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3657" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3658" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3658" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3658" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3658" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3659" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3659" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3659" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3659" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3660" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3660" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3660" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3660" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3661" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3661" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3661" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3661" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3662" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3662" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3662" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3662" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3663" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3663" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3663" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3663" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3664" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3664" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3664" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3664" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3665" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3665" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3665" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3665" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3666" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3666" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3666" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3666" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3667" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3667" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3667" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3667" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3668" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3668" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3668" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3668" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3669" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3669" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3669" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3669" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3670" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3670" t="s">
         <v>36</v>
       </c>
-      <c r="D3436" s="1">
-        <v>9</v>
+      <c r="C3670" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3670" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3671" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3671" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3671" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3671" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3019" xr:uid="{44DEFA72-B260-4F1D-9AF3-9A973D2C5115}"/>
+  <autoFilter ref="A1:E3671" xr:uid="{44DEFA72-B260-4F1D-9AF3-9A973D2C5115}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
